--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H2">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.682562333333333</v>
+        <v>5.008808666666667</v>
       </c>
       <c r="N2">
-        <v>29.047687</v>
+        <v>15.026426</v>
       </c>
       <c r="O2">
-        <v>0.5358521175370563</v>
+        <v>0.3739112966508367</v>
       </c>
       <c r="P2">
-        <v>0.5358521175370563</v>
+        <v>0.3739112966508367</v>
       </c>
       <c r="Q2">
-        <v>453.7104600597272</v>
+        <v>0.2081160001</v>
       </c>
       <c r="R2">
-        <v>4083.394140537545</v>
+        <v>1.8730440009</v>
       </c>
       <c r="S2">
-        <v>0.07604048610817342</v>
+        <v>5.482168452307987E-05</v>
       </c>
       <c r="T2">
-        <v>0.07604048610817343</v>
+        <v>5.482168452307987E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H3">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.589301</v>
       </c>
       <c r="O3">
-        <v>0.2322389248810544</v>
+        <v>0.3132668979860996</v>
       </c>
       <c r="P3">
-        <v>0.2322389248810544</v>
+        <v>0.3132668979860996</v>
       </c>
       <c r="Q3">
-        <v>196.6386359278928</v>
+        <v>0.17436181885</v>
       </c>
       <c r="R3">
-        <v>1769.747723351035</v>
+        <v>1.56925636965</v>
       </c>
       <c r="S3">
-        <v>0.03295603425505492</v>
+        <v>4.593019576232524E-05</v>
       </c>
       <c r="T3">
-        <v>0.03295603425505493</v>
+        <v>4.593019576232526E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H4">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I4">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J4">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.190471333333334</v>
+        <v>4.190471333333333</v>
       </c>
       <c r="N4">
         <v>12.571414</v>
       </c>
       <c r="O4">
-        <v>0.2319089575818893</v>
+        <v>0.3128218053630638</v>
       </c>
       <c r="P4">
-        <v>0.2319089575818892</v>
+        <v>0.3128218053630638</v>
       </c>
       <c r="Q4">
-        <v>196.3592498618322</v>
+        <v>0.1741140839</v>
       </c>
       <c r="R4">
-        <v>1767.23324875649</v>
+        <v>1.5670267551</v>
       </c>
       <c r="S4">
-        <v>0.03290921000446944</v>
+        <v>4.586493769822775E-05</v>
       </c>
       <c r="T4">
-        <v>0.03290921000446945</v>
+        <v>4.586493769822775E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>849.531647</v>
       </c>
       <c r="I5">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J5">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.682562333333333</v>
+        <v>5.008808666666667</v>
       </c>
       <c r="N5">
-        <v>29.047687</v>
+        <v>15.026426</v>
       </c>
       <c r="O5">
-        <v>0.5358521175370563</v>
+        <v>0.3739112966508367</v>
       </c>
       <c r="P5">
-        <v>0.5358521175370563</v>
+        <v>0.3739112966508367</v>
       </c>
       <c r="Q5">
-        <v>2741.881042072277</v>
+        <v>1418.380492033736</v>
       </c>
       <c r="R5">
-        <v>24676.92937865049</v>
+        <v>12765.42442830362</v>
       </c>
       <c r="S5">
-        <v>0.4595308806909907</v>
+        <v>0.3736282065319411</v>
       </c>
       <c r="T5">
-        <v>0.4595308806909908</v>
+        <v>0.3736282065319411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>849.531647</v>
       </c>
       <c r="I6">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J6">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.589301</v>
       </c>
       <c r="O6">
-        <v>0.2322389248810544</v>
+        <v>0.3132668979860996</v>
       </c>
       <c r="P6">
-        <v>0.2322389248810544</v>
+        <v>0.3132668979860996</v>
       </c>
       <c r="Q6">
         <v>1188.334401456527</v>
@@ -818,10 +818,10 @@
         <v>10695.00961310875</v>
       </c>
       <c r="S6">
-        <v>0.1991612129328566</v>
+        <v>0.3130297220457328</v>
       </c>
       <c r="T6">
-        <v>0.1991612129328566</v>
+        <v>0.3130297220457328</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>849.531647</v>
       </c>
       <c r="I7">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J7">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.190471333333334</v>
+        <v>4.190471333333333</v>
       </c>
       <c r="N7">
         <v>12.571414</v>
       </c>
       <c r="O7">
-        <v>0.2319089575818893</v>
+        <v>0.3128218053630638</v>
       </c>
       <c r="P7">
-        <v>0.2319089575818892</v>
+        <v>0.3128218053630638</v>
       </c>
       <c r="Q7">
-        <v>1186.646004504318</v>
+        <v>1186.646004504317</v>
       </c>
       <c r="R7">
         <v>10679.81404053886</v>
       </c>
       <c r="S7">
-        <v>0.1988782427651142</v>
+        <v>0.3125849664045552</v>
       </c>
       <c r="T7">
-        <v>0.1988782427651142</v>
+        <v>0.3125849664045552</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.519022</v>
       </c>
       <c r="I8">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J8">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.682562333333333</v>
+        <v>5.008808666666667</v>
       </c>
       <c r="N8">
-        <v>29.047687</v>
+        <v>15.026426</v>
       </c>
       <c r="O8">
-        <v>0.5358521175370563</v>
+        <v>0.3739112966508367</v>
       </c>
       <c r="P8">
-        <v>0.5358521175370563</v>
+        <v>0.3739112966508367</v>
       </c>
       <c r="Q8">
-        <v>1.675154289123778</v>
+        <v>0.8665606305968888</v>
       </c>
       <c r="R8">
-        <v>15.076388602114</v>
+        <v>7.799045675372001</v>
       </c>
       <c r="S8">
-        <v>0.0002807507378921687</v>
+        <v>0.0002282684343725468</v>
       </c>
       <c r="T8">
-        <v>0.0002807507378921687</v>
+        <v>0.0002282684343725468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.519022</v>
       </c>
       <c r="I9">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J9">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.589301</v>
       </c>
       <c r="O9">
-        <v>0.2322389248810544</v>
+        <v>0.3132668979860996</v>
       </c>
       <c r="P9">
-        <v>0.2322389248810544</v>
+        <v>0.3132668979860996</v>
       </c>
       <c r="Q9">
         <v>0.7260137981802222</v>
       </c>
       <c r="R9">
-        <v>6.534124183622</v>
+        <v>6.534124183622001</v>
       </c>
       <c r="S9">
-        <v>0.0001216776931428866</v>
+        <v>0.0001912457446045213</v>
       </c>
       <c r="T9">
-        <v>0.0001216776931428866</v>
+        <v>0.0001912457446045213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.519022</v>
       </c>
       <c r="I10">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J10">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.190471333333334</v>
+        <v>4.190471333333333</v>
       </c>
       <c r="N10">
         <v>12.571414</v>
       </c>
       <c r="O10">
-        <v>0.2319089575818893</v>
+        <v>0.3128218053630638</v>
       </c>
       <c r="P10">
-        <v>0.2319089575818892</v>
+        <v>0.3128218053630638</v>
       </c>
       <c r="Q10">
-        <v>0.7249822707897778</v>
+        <v>0.7249822707897776</v>
       </c>
       <c r="R10">
-        <v>6.524840437108</v>
+        <v>6.524840437107999</v>
       </c>
       <c r="S10">
-        <v>0.0001215048123056387</v>
+        <v>0.0001909740208103455</v>
       </c>
       <c r="T10">
-        <v>0.0001215048123056387</v>
+        <v>0.0001909740208103454</v>
       </c>
     </row>
   </sheetData>
